--- a/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
+++ b/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="319">
   <si>
     <t>PERIOD</t>
   </si>
@@ -985,6 +985,12 @@
   </si>
   <si>
     <t>7/4,5,6</t>
+  </si>
+  <si>
+    <t>9/30 - 10/10/2023</t>
+  </si>
+  <si>
+    <t>10/17-20/2023</t>
   </si>
 </sst>
 </file>
@@ -3388,8 +3394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K511"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K512" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K512"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3767,12 +3773,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K511"/>
+  <dimension ref="A2:K512"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A358" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B366" sqref="B366"/>
+      <selection pane="bottomLeft" activeCell="K371" sqref="K371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,7 +3941,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-16.644000000000091</v>
+        <v>-9.1440000000000889</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3945,7 +3951,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.800000000000011</v>
+        <v>36.300000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11944,13 +11950,15 @@
       <c r="B365" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C365" s="13"/>
+      <c r="C365" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D365" s="39"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G365" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H365" s="39">
         <v>1</v>
@@ -11966,13 +11974,15 @@
         <v>45078</v>
       </c>
       <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
+      <c r="C366" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D366" s="39"/>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G366" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
@@ -11984,13 +11994,15 @@
         <v>45108</v>
       </c>
       <c r="B367" s="15"/>
-      <c r="C367" s="41"/>
+      <c r="C367" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D367" s="42"/>
       <c r="E367" s="9"/>
       <c r="F367" s="15"/>
-      <c r="G367" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G367" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H367" s="42"/>
       <c r="I367" s="9"/>
@@ -12002,13 +12014,15 @@
         <v>45139</v>
       </c>
       <c r="B368" s="20"/>
-      <c r="C368" s="13"/>
+      <c r="C368" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D368" s="39"/>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G368" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
@@ -12020,13 +12034,15 @@
         <v>45170</v>
       </c>
       <c r="B369" s="20"/>
-      <c r="C369" s="13"/>
+      <c r="C369" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D369" s="39"/>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G369" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
@@ -12037,25 +12053,33 @@
       <c r="A370" s="40">
         <v>45200</v>
       </c>
-      <c r="B370" s="20"/>
-      <c r="C370" s="13"/>
+      <c r="B370" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C370" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D370" s="39"/>
       <c r="E370" s="9"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H370" s="39"/>
+      <c r="G370" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H370" s="39">
+        <v>7</v>
+      </c>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
-      <c r="K370" s="20"/>
+      <c r="K370" s="20" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B371" s="20"/>
+      <c r="A371" s="40"/>
+      <c r="B371" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C371" s="13"/>
       <c r="D371" s="39"/>
       <c r="E371" s="9"/>
@@ -12064,14 +12088,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H371" s="39"/>
+      <c r="H371" s="39">
+        <v>4</v>
+      </c>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
-      <c r="K371" s="20"/>
+      <c r="K371" s="20" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -12089,7 +12117,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -12107,7 +12135,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -12125,7 +12153,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -12143,7 +12171,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -12161,7 +12189,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -12179,7 +12207,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -12197,7 +12225,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -12215,7 +12243,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -12233,7 +12261,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -12251,7 +12279,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -12269,7 +12297,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -12287,7 +12315,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -12305,7 +12333,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -12323,7 +12351,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -12341,7 +12369,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -12359,7 +12387,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -12377,7 +12405,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -12395,7 +12423,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12413,7 +12441,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -12431,7 +12459,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12449,7 +12477,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -12467,7 +12495,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -12485,7 +12513,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12503,7 +12531,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12521,7 +12549,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -12539,7 +12567,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -12557,7 +12585,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -12575,7 +12603,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -12593,7 +12621,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -12611,7 +12639,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -12629,7 +12657,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -12647,7 +12675,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12665,7 +12693,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12683,7 +12711,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -12701,7 +12729,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12719,7 +12747,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12737,7 +12765,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12755,7 +12783,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12773,7 +12801,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -12791,7 +12819,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12809,7 +12837,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -12827,7 +12855,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -12845,7 +12873,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -12863,7 +12891,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -12881,7 +12909,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12899,7 +12927,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -12917,7 +12945,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12935,7 +12963,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -12953,7 +12981,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12971,7 +12999,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12989,7 +13017,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -13007,7 +13035,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -13025,7 +13053,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -13043,7 +13071,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -13061,7 +13089,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -13079,7 +13107,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -13097,7 +13125,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -13115,7 +13143,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -13133,7 +13161,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -13151,7 +13179,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -13169,7 +13197,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -13187,7 +13215,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -13205,7 +13233,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -13223,7 +13251,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -13241,7 +13269,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -13259,7 +13287,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -13277,7 +13305,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -13295,7 +13323,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -13313,7 +13341,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -13331,7 +13359,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -13349,7 +13377,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -13367,7 +13395,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -13385,7 +13413,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -13403,7 +13431,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -13421,7 +13449,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -13439,7 +13467,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -13457,7 +13485,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -13475,7 +13503,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -13493,7 +13521,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13511,7 +13539,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13529,7 +13557,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13547,7 +13575,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13565,7 +13593,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -13583,7 +13611,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13601,7 +13629,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -13619,7 +13647,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -13637,7 +13665,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -13655,7 +13683,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -13673,7 +13701,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -13691,7 +13719,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -13709,7 +13737,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -13727,7 +13755,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -13745,7 +13773,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -13763,7 +13791,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -13781,7 +13809,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -13799,7 +13827,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -13817,7 +13845,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -13835,7 +13863,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -13853,7 +13881,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -13871,7 +13899,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -13889,7 +13917,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -13907,7 +13935,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -13925,7 +13953,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -13943,7 +13971,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -13961,7 +13989,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -13979,7 +14007,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -13997,7 +14025,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -14015,7 +14043,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -14033,7 +14061,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14051,7 +14079,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14069,7 +14097,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14087,7 +14115,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14105,7 +14133,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14123,7 +14151,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14141,7 +14169,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14159,7 +14187,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14177,7 +14205,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14195,7 +14223,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14213,7 +14241,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14231,7 +14259,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14249,7 +14277,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14267,7 +14295,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14285,7 +14313,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14303,7 +14331,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14321,7 +14349,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14339,7 +14367,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14357,7 +14385,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14375,7 +14403,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14393,7 +14421,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14411,7 +14439,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14429,7 +14457,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14447,7 +14475,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14465,7 +14493,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14483,7 +14511,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14501,7 +14529,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14519,7 +14547,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14537,7 +14565,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14555,7 +14583,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14573,7 +14601,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14588,6 +14616,24 @@
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="40">
+        <v>49491</v>
+      </c>
+      <c r="B512" s="20"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="39"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
